--- a/Code/Results/Cases/Case_8_39/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_8_39/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1277 +421,1427 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.073346455496306</v>
+        <v>1.062603045229565</v>
       </c>
       <c r="C2">
-        <v>0.1078510457230735</v>
+        <v>0.1221886077685781</v>
       </c>
       <c r="D2">
-        <v>0.08659190476531364</v>
+        <v>0.09543060931045488</v>
       </c>
       <c r="E2">
-        <v>0.05253553912771558</v>
+        <v>0.05530506387442635</v>
       </c>
       <c r="F2">
-        <v>0.872143318713519</v>
+        <v>0.7605931622666873</v>
       </c>
       <c r="G2">
-        <v>0.0008340081248193125</v>
+        <v>0.03144488766572928</v>
       </c>
       <c r="H2">
-        <v>0.01392808494188663</v>
+        <v>0.008626910467863069</v>
       </c>
       <c r="I2">
-        <v>0.01764953109819389</v>
+        <v>0.009895911459047113</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.5373613133758397</v>
+        <v>0.4464177603261774</v>
       </c>
       <c r="L2">
-        <v>0.05961246361473016</v>
+        <v>0.1919383178314256</v>
       </c>
       <c r="M2">
-        <v>0.9603475737951612</v>
+        <v>0.1448237862798276</v>
       </c>
       <c r="N2">
-        <v>0.2093995793138248</v>
+        <v>0.05959988422217144</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>0.998810805791237</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>0.2288404109646081</v>
       </c>
       <c r="Q2">
-        <v>2.276181955469866</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>1.907458357020417</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.9353918888089368</v>
+        <v>0.9274825891899923</v>
       </c>
       <c r="C3">
-        <v>0.09886194092143796</v>
+        <v>0.1105106219798841</v>
       </c>
       <c r="D3">
-        <v>0.07693363821853438</v>
+        <v>0.08544370085152053</v>
       </c>
       <c r="E3">
-        <v>0.04870063394174373</v>
+        <v>0.05194794717949414</v>
       </c>
       <c r="F3">
-        <v>0.854287930969889</v>
+        <v>0.7451244531264507</v>
       </c>
       <c r="G3">
-        <v>0.0008368020952349009</v>
+        <v>0.03609335535000269</v>
       </c>
       <c r="H3">
-        <v>0.01703830027808362</v>
+        <v>0.01079287635607125</v>
       </c>
       <c r="I3">
-        <v>0.02098849785890877</v>
+        <v>0.0119350261638429</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.5389026832090451</v>
+        <v>0.4491179482242096</v>
       </c>
       <c r="L3">
-        <v>0.05689490030227162</v>
+        <v>0.1964951683029881</v>
       </c>
       <c r="M3">
-        <v>0.8371601065046832</v>
+        <v>0.1439783156594796</v>
       </c>
       <c r="N3">
-        <v>0.1858877142324076</v>
+        <v>0.05753572909037885</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>0.8708702188704933</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <v>0.2033957665490362</v>
       </c>
       <c r="Q3">
-        <v>2.258886115667067</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>1.892698241426856</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.8504814176551463</v>
+        <v>0.8441770313842483</v>
       </c>
       <c r="C4">
-        <v>0.09339366816902839</v>
+        <v>0.1034513652958751</v>
       </c>
       <c r="D4">
-        <v>0.07103098117137563</v>
+        <v>0.07935713275212208</v>
       </c>
       <c r="E4">
-        <v>0.04633163205315682</v>
+        <v>0.04987196074122657</v>
       </c>
       <c r="F4">
-        <v>0.8438155416850606</v>
+        <v>0.735881770698299</v>
       </c>
       <c r="G4">
-        <v>0.0008385802107011607</v>
+        <v>0.03921544030073121</v>
       </c>
       <c r="H4">
-        <v>0.01918321162600789</v>
+        <v>0.01230036488120805</v>
       </c>
       <c r="I4">
-        <v>0.02329997906898562</v>
+        <v>0.01337632636432584</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.5400886122943938</v>
+        <v>0.4508760471765427</v>
       </c>
       <c r="L4">
-        <v>0.05518527180334942</v>
+        <v>0.1993455454760777</v>
       </c>
       <c r="M4">
-        <v>0.7615485625953227</v>
+        <v>0.1439910082251323</v>
       </c>
       <c r="N4">
-        <v>0.1715209195345579</v>
+        <v>0.05622579634593805</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>0.7923215414682545</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <v>0.1878742317404729</v>
       </c>
       <c r="Q4">
-        <v>2.249725810968982</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>1.884329987669517</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.8155391136352534</v>
+        <v>0.8098638051296234</v>
       </c>
       <c r="C5">
-        <v>0.0913660708148285</v>
+        <v>0.1008119654709176</v>
       </c>
       <c r="D5">
-        <v>0.06867920789844817</v>
+        <v>0.0769354034660239</v>
       </c>
       <c r="E5">
-        <v>0.04534029463974854</v>
+        <v>0.04900111369921234</v>
       </c>
       <c r="F5">
-        <v>0.8390054686443733</v>
+        <v>0.7315611616882975</v>
       </c>
       <c r="G5">
-        <v>0.000839325597390999</v>
+        <v>0.04056225908070976</v>
       </c>
       <c r="H5">
-        <v>0.02012035227821135</v>
+        <v>0.01296209969654347</v>
       </c>
       <c r="I5">
-        <v>0.02440010977498019</v>
+        <v>0.01411142551931288</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.5401513790224826</v>
+        <v>0.4511901333386632</v>
       </c>
       <c r="L5">
-        <v>0.05443456896841248</v>
+        <v>0.2003117112438879</v>
       </c>
       <c r="M5">
-        <v>0.7310474871281656</v>
+        <v>0.1440183006196776</v>
       </c>
       <c r="N5">
-        <v>0.1658419435795651</v>
+        <v>0.05564167340771853</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>0.760613046866041</v>
       </c>
       <c r="P5">
-        <v>0</v>
+        <v>0.1817326484122006</v>
       </c>
       <c r="Q5">
-        <v>2.244450947766794</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>1.87934722073507</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.8093843639966849</v>
+        <v>0.8038206837985626</v>
       </c>
       <c r="C6">
-        <v>0.09126335629767368</v>
+        <v>0.1006349697312103</v>
       </c>
       <c r="D6">
-        <v>0.06834694039525147</v>
+        <v>0.07659228504275006</v>
       </c>
       <c r="E6">
-        <v>0.04514838070195815</v>
+        <v>0.04883053291117889</v>
       </c>
       <c r="F6">
-        <v>0.8374047165553336</v>
+        <v>0.7300952336532802</v>
       </c>
       <c r="G6">
-        <v>0.0008394562717457193</v>
+        <v>0.04080097502116076</v>
       </c>
       <c r="H6">
-        <v>0.02028641922679708</v>
+        <v>0.01307966175094818</v>
       </c>
       <c r="I6">
-        <v>0.02470917568866593</v>
+        <v>0.01436913355023162</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.5395800826530746</v>
+        <v>0.4507232198352149</v>
       </c>
       <c r="L6">
-        <v>0.05425617858909959</v>
+        <v>0.2002192227671493</v>
       </c>
       <c r="M6">
-        <v>0.7263630072048954</v>
+        <v>0.143894419043761</v>
       </c>
       <c r="N6">
-        <v>0.1650957478562489</v>
+        <v>0.05549583897929189</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>0.7557188572656344</v>
       </c>
       <c r="P6">
-        <v>0</v>
+        <v>0.1809098137709881</v>
       </c>
       <c r="Q6">
-        <v>2.241277539297045</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>1.876404998229262</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.8490529313086483</v>
+        <v>0.8432998802159659</v>
       </c>
       <c r="C7">
-        <v>0.09400500156696268</v>
+        <v>0.1036532808952941</v>
       </c>
       <c r="D7">
-        <v>0.07115751177465768</v>
+        <v>0.08004810624377257</v>
       </c>
       <c r="E7">
-        <v>0.0462443804113466</v>
+        <v>0.04987525672847326</v>
       </c>
       <c r="F7">
-        <v>0.841543665189711</v>
+        <v>0.7303297299606584</v>
       </c>
       <c r="G7">
-        <v>0.000838606110161558</v>
+        <v>0.03977026805147243</v>
       </c>
       <c r="H7">
-        <v>0.01921391785762872</v>
+        <v>0.01234163966887404</v>
       </c>
       <c r="I7">
-        <v>0.02363190238882051</v>
+        <v>0.01375257391315454</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.5384945158092513</v>
+        <v>0.4476505751992903</v>
       </c>
       <c r="L7">
-        <v>0.0550303516687034</v>
+        <v>0.1978293081054368</v>
       </c>
       <c r="M7">
-        <v>0.7621782087676365</v>
+        <v>0.1430996453363864</v>
       </c>
       <c r="N7">
-        <v>0.1719802067436405</v>
+        <v>0.05602101630940837</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>0.7922186718986666</v>
       </c>
       <c r="P7">
-        <v>0</v>
+        <v>0.1882976404607888</v>
       </c>
       <c r="Q7">
-        <v>2.243333216122537</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>1.868185230499208</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.024536925522568</v>
+        <v>1.016564354707469</v>
       </c>
       <c r="C8">
-        <v>0.1055955430231919</v>
+        <v>0.1174940673350022</v>
       </c>
       <c r="D8">
-        <v>0.08346615481524111</v>
+        <v>0.09408724400314838</v>
       </c>
       <c r="E8">
-        <v>0.05111844889369621</v>
+        <v>0.05434552153239203</v>
       </c>
       <c r="F8">
-        <v>0.8629803006395136</v>
+        <v>0.7412517640236231</v>
       </c>
       <c r="G8">
-        <v>0.000834978346612445</v>
+        <v>0.03534519645207013</v>
       </c>
       <c r="H8">
-        <v>0.01497059224564815</v>
+        <v>0.009402451948488807</v>
       </c>
       <c r="I8">
-        <v>0.01912643087134658</v>
+        <v>0.01103738024389234</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.5357526320142192</v>
+        <v>0.4396429578343408</v>
       </c>
       <c r="L8">
-        <v>0.05849327157553752</v>
+        <v>0.1901483428079906</v>
       </c>
       <c r="M8">
-        <v>0.9192510192268344</v>
+        <v>0.1420114331648552</v>
       </c>
       <c r="N8">
-        <v>0.201991143711254</v>
+        <v>0.05851515104107463</v>
       </c>
       <c r="O8">
-        <v>0</v>
+        <v>0.9537222530865108</v>
       </c>
       <c r="P8">
-        <v>0</v>
+        <v>0.220661785621644</v>
       </c>
       <c r="Q8">
-        <v>2.261612191031901</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>1.861168371897548</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.368964609361143</v>
+        <v>1.353548132286789</v>
       </c>
       <c r="C9">
-        <v>0.1276552831574378</v>
+        <v>0.1459976783565509</v>
       </c>
       <c r="D9">
-        <v>0.1075649054832866</v>
+        <v>0.1196514161890434</v>
       </c>
       <c r="E9">
-        <v>0.06070506754638849</v>
+        <v>0.06281392599500535</v>
       </c>
       <c r="F9">
-        <v>0.9130215138365969</v>
+        <v>0.7808701886783496</v>
       </c>
       <c r="G9">
-        <v>0.0008283266203954239</v>
+        <v>0.02555524718816837</v>
       </c>
       <c r="H9">
-        <v>0.008577353288373279</v>
+        <v>0.005024249005955439</v>
       </c>
       <c r="I9">
-        <v>0.01197160646633755</v>
+        <v>0.006665249238599458</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>0.5351619213556482</v>
+        <v>0.4337719142728815</v>
       </c>
       <c r="L9">
-        <v>0.06522614278189209</v>
+        <v>0.1796733646744251</v>
       </c>
       <c r="M9">
-        <v>1.225888966565577</v>
+        <v>0.1466866848252764</v>
       </c>
       <c r="N9">
-        <v>0.2605120112335015</v>
+        <v>0.06354147077624894</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>1.271361613428127</v>
       </c>
       <c r="P9">
-        <v>0</v>
+        <v>0.2841439519628892</v>
       </c>
       <c r="Q9">
-        <v>2.320771748290412</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>1.900471413555778</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.61888655648545</v>
+        <v>1.600787088390661</v>
       </c>
       <c r="C10">
-        <v>0.1458617847972619</v>
+        <v>0.1661719010653684</v>
       </c>
       <c r="D10">
-        <v>0.1238636527311598</v>
+        <v>0.1404077755556017</v>
       </c>
       <c r="E10">
-        <v>0.06543875210481076</v>
+        <v>0.06730726574826917</v>
       </c>
       <c r="F10">
-        <v>0.9394300976710284</v>
+        <v>0.7813661465949195</v>
       </c>
       <c r="G10">
-        <v>0.0008238143035871174</v>
+        <v>0.0281174931434407</v>
       </c>
       <c r="H10">
-        <v>0.005545798833285875</v>
+        <v>0.003143426538346983</v>
       </c>
       <c r="I10">
-        <v>0.008385014524397327</v>
+        <v>0.004762627959606469</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>0.529016959879371</v>
+        <v>0.4152527853705834</v>
       </c>
       <c r="L10">
-        <v>0.06778171306608627</v>
+        <v>0.1671047290962875</v>
       </c>
       <c r="M10">
-        <v>1.454394812986266</v>
+        <v>0.1467708704008572</v>
       </c>
       <c r="N10">
-        <v>0.2952874042714484</v>
+        <v>0.06482946960428926</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>1.502930022003198</v>
       </c>
       <c r="P10">
-        <v>0</v>
+        <v>0.3218652290886013</v>
       </c>
       <c r="Q10">
-        <v>2.340742070734223</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>1.852116753712835</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.712537271474019</v>
+        <v>1.703094725830994</v>
       </c>
       <c r="C11">
-        <v>0.1672313352922004</v>
+        <v>0.1816064562584074</v>
       </c>
       <c r="D11">
-        <v>0.1171411787292982</v>
+        <v>0.1400922836471068</v>
       </c>
       <c r="E11">
-        <v>0.05026619062364546</v>
+        <v>0.05317675963437374</v>
       </c>
       <c r="F11">
-        <v>0.8473649069073872</v>
+        <v>0.6669590094072078</v>
       </c>
       <c r="G11">
-        <v>0.0008225032269181188</v>
+        <v>0.06211350096882029</v>
       </c>
       <c r="H11">
-        <v>0.02401881324518129</v>
+        <v>0.0217933398195953</v>
       </c>
       <c r="I11">
-        <v>0.008070417963619292</v>
+        <v>0.005028446499389716</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>0.4728942008010932</v>
+        <v>0.3549974558408273</v>
       </c>
       <c r="L11">
-        <v>0.05543712606522089</v>
+        <v>0.1443770193019649</v>
       </c>
       <c r="M11">
-        <v>1.577770728301573</v>
+        <v>0.1253875776018099</v>
       </c>
       <c r="N11">
-        <v>0.2381587602269803</v>
+        <v>0.05437534757313944</v>
       </c>
       <c r="O11">
-        <v>0</v>
+        <v>1.615533641088803</v>
       </c>
       <c r="P11">
-        <v>0</v>
+        <v>0.2603895780603693</v>
       </c>
       <c r="Q11">
-        <v>2.102845066667072</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>1.55535865711056</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.739894815781298</v>
+        <v>1.736627902388449</v>
       </c>
       <c r="C12">
-        <v>0.1815286514987093</v>
+        <v>0.191426446798431</v>
       </c>
       <c r="D12">
-        <v>0.1079331062467475</v>
+        <v>0.1329008491831729</v>
       </c>
       <c r="E12">
-        <v>0.03938837985123911</v>
+        <v>0.04260673460626485</v>
       </c>
       <c r="F12">
-        <v>0.7709905123991518</v>
+        <v>0.5908969694831541</v>
       </c>
       <c r="G12">
-        <v>0.000822251434785537</v>
+        <v>0.08682802561599345</v>
       </c>
       <c r="H12">
-        <v>0.06289215339027265</v>
+        <v>0.0606586214722995</v>
       </c>
       <c r="I12">
-        <v>0.007931266354300526</v>
+        <v>0.004981226285743823</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>0.4324637016235648</v>
+        <v>0.320500665358578</v>
       </c>
       <c r="L12">
-        <v>0.05176474317326329</v>
+        <v>0.1326191738857005</v>
       </c>
       <c r="M12">
-        <v>1.632609668559411</v>
+        <v>0.1117268361126236</v>
       </c>
       <c r="N12">
-        <v>0.1875609771228781</v>
+        <v>0.05265043195302699</v>
       </c>
       <c r="O12">
-        <v>0</v>
+        <v>1.663017834579676</v>
       </c>
       <c r="P12">
-        <v>0</v>
+        <v>0.205962893632929</v>
       </c>
       <c r="Q12">
-        <v>1.916990617535134</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>1.374827604667686</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.716010284226371</v>
+        <v>1.71584029183532</v>
       </c>
       <c r="C13">
-        <v>0.1920648640057152</v>
+        <v>0.2002063446323348</v>
       </c>
       <c r="D13">
-        <v>0.09658984149390903</v>
+        <v>0.119077628609034</v>
       </c>
       <c r="E13">
-        <v>0.03108584373554368</v>
+        <v>0.03415507490700431</v>
       </c>
       <c r="F13">
-        <v>0.6987453913856427</v>
+        <v>0.5392236866422238</v>
       </c>
       <c r="G13">
-        <v>0.0008228243872196235</v>
+        <v>0.08144306216243535</v>
       </c>
       <c r="H13">
-        <v>0.1191328985587745</v>
+        <v>0.1167257507974284</v>
       </c>
       <c r="I13">
-        <v>0.008333058380646463</v>
+        <v>0.005170698986183275</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>0.3991302138345958</v>
+        <v>0.301268734564033</v>
       </c>
       <c r="L13">
-        <v>0.0541851473297843</v>
+        <v>0.126671943787672</v>
       </c>
       <c r="M13">
-        <v>1.638978237956366</v>
+        <v>0.1030961861964883</v>
       </c>
       <c r="N13">
-        <v>0.1401784483600466</v>
+        <v>0.05690733916153512</v>
       </c>
       <c r="O13">
-        <v>0</v>
+        <v>1.666266006461058</v>
       </c>
       <c r="P13">
-        <v>0</v>
+        <v>0.1549944517488626</v>
       </c>
       <c r="Q13">
-        <v>1.750021726759201</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>1.26840950148781</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.675828987710901</v>
+        <v>1.676471583374479</v>
       </c>
       <c r="C14">
-        <v>0.1980580414471689</v>
+        <v>0.206285114076735</v>
       </c>
       <c r="D14">
-        <v>0.08782886578272553</v>
+        <v>0.1068800480709484</v>
       </c>
       <c r="E14">
-        <v>0.02684238476089895</v>
+        <v>0.02974150883927074</v>
       </c>
       <c r="F14">
-        <v>0.6503758992786217</v>
+        <v>0.5120368487688225</v>
       </c>
       <c r="G14">
-        <v>0.0008236002921638362</v>
+        <v>0.06518930502632614</v>
       </c>
       <c r="H14">
-        <v>0.1689494049774964</v>
+        <v>0.1663435784714409</v>
       </c>
       <c r="I14">
-        <v>0.008969658245775669</v>
+        <v>0.005527532723052175</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>0.3792210134992509</v>
+        <v>0.2933287032871359</v>
       </c>
       <c r="L14">
-        <v>0.05950723269459957</v>
+        <v>0.1244307184415003</v>
       </c>
       <c r="M14">
-        <v>1.621785714591283</v>
+        <v>0.0990087869430365</v>
       </c>
       <c r="N14">
-        <v>0.1096610541701537</v>
+        <v>0.06325992782791445</v>
       </c>
       <c r="O14">
-        <v>0</v>
+        <v>1.64872256172859</v>
       </c>
       <c r="P14">
-        <v>0</v>
+        <v>0.1221404545503049</v>
       </c>
       <c r="Q14">
-        <v>1.64228703172617</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>1.220772025579336</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.654802763190474</v>
+        <v>1.655081606183586</v>
       </c>
       <c r="C15">
-        <v>0.1989009122840599</v>
+        <v>0.2077839151716745</v>
       </c>
       <c r="D15">
-        <v>0.08529190639451656</v>
+        <v>0.1028095490128891</v>
       </c>
       <c r="E15">
-        <v>0.02599144470094261</v>
+        <v>0.02884985518012506</v>
       </c>
       <c r="F15">
-        <v>0.6384710347593483</v>
+        <v>0.5082706185655255</v>
       </c>
       <c r="G15">
-        <v>0.0008239801852285011</v>
+        <v>0.05691541464501881</v>
       </c>
       <c r="H15">
-        <v>0.1816888223613233</v>
+        <v>0.1789834741920657</v>
       </c>
       <c r="I15">
-        <v>0.009391670605091385</v>
+        <v>0.00582755133659596</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>0.3751073793477318</v>
+        <v>0.2931568256780359</v>
       </c>
       <c r="L15">
-        <v>0.06118659865582288</v>
+        <v>0.1244927990522964</v>
       </c>
       <c r="M15">
-        <v>1.607581119700512</v>
+        <v>0.09860814982374677</v>
       </c>
       <c r="N15">
-        <v>0.1023501492368908</v>
+        <v>0.06513016764538193</v>
       </c>
       <c r="O15">
-        <v>0</v>
+        <v>1.635213103475365</v>
       </c>
       <c r="P15">
-        <v>0</v>
+        <v>0.1142680187527105</v>
       </c>
       <c r="Q15">
-        <v>1.617245952231443</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>1.218254241394177</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.551673521384316</v>
+        <v>1.547440316285559</v>
       </c>
       <c r="C16">
-        <v>0.1889048854276894</v>
+        <v>0.2029021613798108</v>
       </c>
       <c r="D16">
-        <v>0.08096721030533161</v>
+        <v>0.09264568868033507</v>
       </c>
       <c r="E16">
-        <v>0.02582742555141593</v>
+        <v>0.02866821194174296</v>
       </c>
       <c r="F16">
-        <v>0.6409205699929572</v>
+        <v>0.5365791692669717</v>
       </c>
       <c r="G16">
-        <v>0.0008258006545333544</v>
+        <v>0.02935648824567849</v>
       </c>
       <c r="H16">
-        <v>0.1702302643482767</v>
+        <v>0.1669884744856347</v>
       </c>
       <c r="I16">
-        <v>0.01095281288370042</v>
+        <v>0.00669444860587376</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>0.383454155827895</v>
+        <v>0.3107760088371911</v>
       </c>
       <c r="L16">
-        <v>0.05941330209956419</v>
+        <v>0.1309324370336764</v>
       </c>
       <c r="M16">
-        <v>1.507690350816489</v>
+        <v>0.1043624147311508</v>
       </c>
       <c r="N16">
-        <v>0.09860960565908528</v>
+        <v>0.06314723910946185</v>
       </c>
       <c r="O16">
-        <v>0</v>
+        <v>1.541606901561664</v>
       </c>
       <c r="P16">
-        <v>0</v>
+        <v>0.1103416275626543</v>
       </c>
       <c r="Q16">
-        <v>1.638697585355004</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>1.308608063881579</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.494021359968315</v>
+        <v>1.486812629736363</v>
       </c>
       <c r="C17">
-        <v>0.1780704620552029</v>
+        <v>0.1948117860327301</v>
       </c>
       <c r="D17">
-        <v>0.08224642297935958</v>
+        <v>0.0918584428899436</v>
       </c>
       <c r="E17">
-        <v>0.02766178469310443</v>
+        <v>0.0304700517886074</v>
       </c>
       <c r="F17">
-        <v>0.6680789568705734</v>
+        <v>0.5710668551490912</v>
       </c>
       <c r="G17">
-        <v>0.0008267897284610082</v>
+        <v>0.02383923810963662</v>
       </c>
       <c r="H17">
-        <v>0.133206075107708</v>
+        <v>0.1296544775646993</v>
       </c>
       <c r="I17">
-        <v>0.01185923054620641</v>
+        <v>0.007217327620803182</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>0.4001534495262931</v>
+        <v>0.3285824900401835</v>
       </c>
       <c r="L17">
-        <v>0.05462022193829874</v>
+        <v>0.1376242235948784</v>
       </c>
       <c r="M17">
-        <v>1.440495814984615</v>
+        <v>0.1105383753086571</v>
       </c>
       <c r="N17">
-        <v>0.1112284462636524</v>
+        <v>0.05788277336376524</v>
       </c>
       <c r="O17">
-        <v>0</v>
+        <v>1.478146912975177</v>
       </c>
       <c r="P17">
-        <v>0</v>
+        <v>0.123984236426395</v>
       </c>
       <c r="Q17">
-        <v>1.711506243756432</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>1.399963395252826</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.469448910484971</v>
+        <v>1.459014821311911</v>
       </c>
       <c r="C18">
-        <v>0.1650390529930945</v>
+        <v>0.1838417141637052</v>
       </c>
       <c r="D18">
-        <v>0.08850937472220011</v>
+        <v>0.09775124124575285</v>
       </c>
       <c r="E18">
-        <v>0.03286336863929495</v>
+        <v>0.03548706189117734</v>
       </c>
       <c r="F18">
-        <v>0.723030540668816</v>
+        <v>0.6231439512454671</v>
       </c>
       <c r="G18">
-        <v>0.0008271228313810514</v>
+        <v>0.0225449541312468</v>
       </c>
       <c r="H18">
-        <v>0.08055666431602049</v>
+        <v>0.07691966305728926</v>
       </c>
       <c r="I18">
-        <v>0.0118755343757817</v>
+        <v>0.007064974153004222</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>0.4285560477729184</v>
+        <v>0.3527566344619721</v>
       </c>
       <c r="L18">
-        <v>0.05006873630293907</v>
+        <v>0.1466988460193175</v>
       </c>
       <c r="M18">
-        <v>1.392895563094811</v>
+        <v>0.1193763238085062</v>
       </c>
       <c r="N18">
-        <v>0.142138508104658</v>
+        <v>0.05242943398924105</v>
       </c>
       <c r="O18">
-        <v>0</v>
+        <v>1.434210747989539</v>
       </c>
       <c r="P18">
-        <v>0</v>
+        <v>0.1572878723622182</v>
       </c>
       <c r="Q18">
-        <v>1.846048501810969</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>1.524750686621488</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.471149645429449</v>
+        <v>1.457111423504784</v>
       </c>
       <c r="C19">
-        <v>0.1534920918144849</v>
+        <v>0.1740687890702048</v>
       </c>
       <c r="D19">
-        <v>0.0988689005869503</v>
+        <v>0.1087000603869086</v>
       </c>
       <c r="E19">
-        <v>0.04246476596390103</v>
+        <v>0.04473136187048077</v>
       </c>
       <c r="F19">
-        <v>0.7965675167597297</v>
+        <v>0.6874699541094884</v>
       </c>
       <c r="G19">
-        <v>0.0008268806009122812</v>
+        <v>0.0218805812936842</v>
       </c>
       <c r="H19">
-        <v>0.03477423141048064</v>
+        <v>0.03129391321883901</v>
       </c>
       <c r="I19">
-        <v>0.01174020479923943</v>
+        <v>0.007056268723910186</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>0.4649500226266561</v>
+        <v>0.3813544730650875</v>
       </c>
       <c r="L19">
-        <v>0.05110240821992296</v>
+        <v>0.1573202479321818</v>
       </c>
       <c r="M19">
-        <v>1.36679900377186</v>
+        <v>0.1301612615825807</v>
       </c>
       <c r="N19">
-        <v>0.1910830549981384</v>
+        <v>0.05202227489693334</v>
       </c>
       <c r="O19">
-        <v>0</v>
+        <v>1.412038486299281</v>
       </c>
       <c r="P19">
-        <v>0</v>
+        <v>0.2098840163447733</v>
       </c>
       <c r="Q19">
-        <v>2.020359078088632</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>1.671836521265533</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.550105349373325</v>
+        <v>1.530998583751767</v>
       </c>
       <c r="C20">
-        <v>0.143207144611992</v>
+        <v>0.1651231019943822</v>
       </c>
       <c r="D20">
-        <v>0.1200024810646312</v>
+        <v>0.1332510203439057</v>
       </c>
       <c r="E20">
-        <v>0.06387906265740995</v>
+        <v>0.06551004381938696</v>
       </c>
       <c r="F20">
-        <v>0.925093527461236</v>
+        <v>0.7863977539942155</v>
       </c>
       <c r="G20">
-        <v>0.0008250246564426728</v>
+        <v>0.02208759658451953</v>
       </c>
       <c r="H20">
-        <v>0.006270944105346565</v>
+        <v>0.003550855961413468</v>
       </c>
       <c r="I20">
-        <v>0.01014708883789428</v>
+        <v>0.006203049129487326</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>0.5255137321579042</v>
+        <v>0.421731270180203</v>
       </c>
       <c r="L20">
-        <v>0.06659962445915468</v>
+        <v>0.1708762199816682</v>
       </c>
       <c r="M20">
-        <v>1.39773263734358</v>
+        <v>0.1473250327024864</v>
       </c>
       <c r="N20">
-        <v>0.2874425212841061</v>
+        <v>0.06425532984676963</v>
       </c>
       <c r="O20">
-        <v>0</v>
+        <v>1.448026755302209</v>
       </c>
       <c r="P20">
-        <v>0</v>
+        <v>0.3133340015201895</v>
       </c>
       <c r="Q20">
-        <v>2.314657568961906</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>1.881162632452998</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.745621427844071</v>
+        <v>1.733551975482726</v>
       </c>
       <c r="C21">
-        <v>0.154979483891708</v>
+        <v>0.1691273517600109</v>
       </c>
       <c r="D21">
-        <v>0.1350693503767957</v>
+        <v>0.1637287722290779</v>
       </c>
       <c r="E21">
-        <v>0.07098953244640782</v>
+        <v>0.0741204347101494</v>
       </c>
       <c r="F21">
-        <v>0.9664282907881301</v>
+        <v>0.7439468807518566</v>
       </c>
       <c r="G21">
-        <v>0.0008215098622168611</v>
+        <v>0.08274702026910319</v>
       </c>
       <c r="H21">
-        <v>0.003867005898315679</v>
+        <v>0.002092335926084266</v>
       </c>
       <c r="I21">
-        <v>0.007566524116453976</v>
+        <v>0.004935461942102926</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>0.5319517402776981</v>
+        <v>0.3865783116046622</v>
       </c>
       <c r="L21">
-        <v>0.07191274946168491</v>
+        <v>0.154741476386631</v>
       </c>
       <c r="M21">
-        <v>1.569720232766372</v>
+        <v>0.1389412594476731</v>
       </c>
       <c r="N21">
-        <v>0.3278982435395648</v>
+        <v>0.06702140103051946</v>
       </c>
       <c r="O21">
-        <v>0</v>
+        <v>1.609228083778362</v>
       </c>
       <c r="P21">
-        <v>0</v>
+        <v>0.3565122511736547</v>
       </c>
       <c r="Q21">
-        <v>2.381285002730266</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>1.710945266345945</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.873658358713328</v>
+        <v>1.867361381047147</v>
       </c>
       <c r="C22">
-        <v>0.1625556106493349</v>
+        <v>0.1710328929734288</v>
       </c>
       <c r="D22">
-        <v>0.1439017430238749</v>
+        <v>0.1841833840134228</v>
       </c>
       <c r="E22">
-        <v>0.07459721365616545</v>
+        <v>0.07900960363934928</v>
       </c>
       <c r="F22">
-        <v>0.9906980698809207</v>
+        <v>0.710632215841045</v>
       </c>
       <c r="G22">
-        <v>0.0008192879223569788</v>
+        <v>0.170913622168186</v>
       </c>
       <c r="H22">
-        <v>0.002733870616984047</v>
+        <v>0.001437443385197135</v>
       </c>
       <c r="I22">
-        <v>0.005865527405243931</v>
+        <v>0.003877645898074711</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>0.5352344281416066</v>
+        <v>0.3622534590886168</v>
       </c>
       <c r="L22">
-        <v>0.07445487665361483</v>
+        <v>0.1445962047220224</v>
       </c>
       <c r="M22">
-        <v>1.682017849836996</v>
+        <v>0.1324884639031119</v>
       </c>
       <c r="N22">
-        <v>0.3491662454349864</v>
+        <v>0.0680092993110506</v>
       </c>
       <c r="O22">
-        <v>0</v>
+        <v>1.712916008483319</v>
       </c>
       <c r="P22">
-        <v>0</v>
+        <v>0.3792021378227304</v>
       </c>
       <c r="Q22">
-        <v>2.419936554662058</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>1.590048933968305</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.806504059781048</v>
+        <v>1.79561567577386</v>
       </c>
       <c r="C23">
-        <v>0.1577016412380914</v>
+        <v>0.1703626635674027</v>
       </c>
       <c r="D23">
-        <v>0.1389925648912964</v>
+        <v>0.171281729981871</v>
       </c>
       <c r="E23">
-        <v>0.07275879364242499</v>
+        <v>0.07620689593716179</v>
       </c>
       <c r="F23">
-        <v>0.9802223038922193</v>
+        <v>0.7384205322955069</v>
       </c>
       <c r="G23">
-        <v>0.0008204550297550467</v>
+        <v>0.1053759519803847</v>
       </c>
       <c r="H23">
-        <v>0.003305095219665155</v>
+        <v>0.001756444513171251</v>
       </c>
       <c r="I23">
-        <v>0.006400959619573321</v>
+        <v>0.004015409899547961</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>0.5352549582748196</v>
+        <v>0.3802038335713114</v>
       </c>
       <c r="L23">
-        <v>0.07326707943004607</v>
+        <v>0.1515290056080651</v>
       </c>
       <c r="M23">
-        <v>1.620794559124647</v>
+        <v>0.1381018686325888</v>
       </c>
       <c r="N23">
-        <v>0.3371520979657134</v>
+        <v>0.06775472204320643</v>
       </c>
       <c r="O23">
-        <v>0</v>
+        <v>1.658242096919423</v>
       </c>
       <c r="P23">
-        <v>0</v>
+        <v>0.3665013696007975</v>
       </c>
       <c r="Q23">
-        <v>2.406335451774083</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>1.682121389520589</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.550352544491403</v>
+        <v>1.530768035187236</v>
       </c>
       <c r="C24">
-        <v>0.1407951545021717</v>
+        <v>0.1626661562530245</v>
       </c>
       <c r="D24">
-        <v>0.1207933085476611</v>
+        <v>0.1340205742592246</v>
       </c>
       <c r="E24">
-        <v>0.06565563152179266</v>
+        <v>0.06721552146878196</v>
       </c>
       <c r="F24">
-        <v>0.9378555268532551</v>
+        <v>0.7980333740378924</v>
       </c>
       <c r="G24">
-        <v>0.0008249934852336801</v>
+        <v>0.02183559196628959</v>
       </c>
       <c r="H24">
-        <v>0.006041708903259224</v>
+        <v>0.003350732470147388</v>
       </c>
       <c r="I24">
-        <v>0.009567016222018054</v>
+        <v>0.005545149530764348</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>0.533112933591827</v>
+        <v>0.4280434877423609</v>
       </c>
       <c r="L24">
-        <v>0.06845728221498604</v>
+        <v>0.1732215533741837</v>
       </c>
       <c r="M24">
-        <v>1.391455287352017</v>
+        <v>0.1496990989796281</v>
       </c>
       <c r="N24">
-        <v>0.2929286509547779</v>
+        <v>0.06585697711128269</v>
       </c>
       <c r="O24">
-        <v>0</v>
+        <v>1.442224833470277</v>
       </c>
       <c r="P24">
-        <v>0</v>
+        <v>0.3192821157362147</v>
       </c>
       <c r="Q24">
-        <v>2.347302432361062</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>1.91017818426289</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.274130465718173</v>
+        <v>1.260176639946167</v>
       </c>
       <c r="C25">
-        <v>0.1228166721168265</v>
+        <v>0.1402484867429479</v>
       </c>
       <c r="D25">
-        <v>0.1013045576475662</v>
+        <v>0.1121585273807284</v>
       </c>
       <c r="E25">
-        <v>0.05798786132184119</v>
+        <v>0.06028274258036959</v>
       </c>
       <c r="F25">
-        <v>0.895087316402261</v>
+        <v>0.7711135479627202</v>
       </c>
       <c r="G25">
-        <v>0.0008300998512142943</v>
+        <v>0.02674354441859794</v>
       </c>
       <c r="H25">
-        <v>0.01010574054055887</v>
+        <v>0.006038926420720958</v>
       </c>
       <c r="I25">
-        <v>0.01418343106414977</v>
+        <v>0.008233369022309311</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>0.532288725214169</v>
+        <v>0.4353129628601913</v>
       </c>
       <c r="L25">
-        <v>0.06317892009359127</v>
+        <v>0.1824744003508307</v>
       </c>
       <c r="M25">
-        <v>1.144749346986657</v>
+        <v>0.144988215770347</v>
       </c>
       <c r="N25">
-        <v>0.2455846938336208</v>
+        <v>0.06207831341115444</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>1.188263931170809</v>
       </c>
       <c r="P25">
-        <v>0</v>
+        <v>0.2678969909456441</v>
       </c>
       <c r="Q25">
-        <v>2.292186215793492</v>
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
+        <v>1.893343033096201</v>
       </c>
     </row>
   </sheetData>
